--- a/medicine/Enfance/Jeanne-Justine_Fouqueau_de_Pussy/Jeanne-Justine_Fouqueau_de_Pussy.xlsx
+++ b/medicine/Enfance/Jeanne-Justine_Fouqueau_de_Pussy/Jeanne-Justine_Fouqueau_de_Pussy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeanne-Justine Fouqueau de Pussy, née le 27 septembre 1786 à Orléans et morte le 25 mai 1863 dans le IXe arrondissement de Paris, est une écrivaine et journaliste française[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeanne-Justine Fouqueau de Pussy, née le 27 septembre 1786 à Orléans et morte le 25 mai 1863 dans le IXe arrondissement de Paris, est une écrivaine et journaliste française,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se spécialise dans l'écriture de livres pour enfants et est active dans le domaine de la littérature pédagogique[3].
-Elle fonde le Journal des Demoiselles en 1833 qui paraitra jusqu'en 1922 et en est la directrice et rédactrice en chef de 1833 à 1852[4],[5]. En plus des articles signés de son nom, elle y aurait signé des articles sur l'art sous le nom d'Edmée de Syva[6].
-En 1832, elle publie un livre de lecture: Le grand-père et ses quatre petits fils; Livre de lecture à l'usage des écoles primaires [6]. Ce Livre est approuvé par le Conseil royal pour l'instruction publique[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se spécialise dans l'écriture de livres pour enfants et est active dans le domaine de la littérature pédagogique.
+Elle fonde le Journal des Demoiselles en 1833 qui paraitra jusqu'en 1922 et en est la directrice et rédactrice en chef de 1833 à 1852,. En plus des articles signés de son nom, elle y aurait signé des articles sur l'art sous le nom d'Edmée de Syva.
+En 1832, elle publie un livre de lecture: Le grand-père et ses quatre petits fils; Livre de lecture à l'usage des écoles primaires . Ce Livre est approuvé par le Conseil royal pour l'instruction publique.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(fr) Le grand-père et ses quatre petits-fils: livre de lecture à l'usage des écoles primaires, Firmin Didot frères, 1832</t>
         </is>
